--- a/Data/Entities/OpenNGS/OpenNGS.Exchange.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Exchange.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FC623-D792-4DBF-B6BD-16DEFFA25CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="3070" windowWidth="26850" windowHeight="16130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="OpenNGS.Exchange.Common" sheetId="3" r:id="rId3"/>
     <sheet name="OpenNGS.Exchange.Service" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="86">
   <si>
     <t>Package</t>
   </si>
@@ -55,6 +49,9 @@
     <t>TableType</t>
   </si>
   <si>
+    <t>OpenNGS.Exchange.Data</t>
+  </si>
+  <si>
     <t>SourceItem</t>
   </si>
   <si>
@@ -73,204 +70,13 @@
     <t>Table</t>
   </si>
   <si>
-    <t>TargetItem</t>
-  </si>
-  <si>
-    <t>目标物品</t>
-  </si>
-  <si>
-    <t>EXCHANGE_RESULT_TYPE</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>交易结果类型</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>GridSrcState</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>ItemSrcState</t>
-  </si>
-  <si>
-    <t>TargetState</t>
-  </si>
-  <si>
-    <t>ExchangeByGridIDReq</t>
-  </si>
-  <si>
-    <t>通过格子ID的交易请求</t>
-  </si>
-  <si>
-    <t>ExchangeByItemIDReq</t>
-  </si>
-  <si>
-    <t>通过道具ID的交易请求</t>
-  </si>
-  <si>
-    <t>ExchangeRsp</t>
-  </si>
-  <si>
-    <t>交易响应</t>
-  </si>
-  <si>
-    <t>ExchangeResultType</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>GUID</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>唯一ID</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>道具数量</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>目标的道具ID</t>
-  </si>
-  <si>
-    <t>EXCHANGE_RESULT_TYPE_NONE</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>EXCHANGE_RESULT_TYPE_SUCCESS</t>
-  </si>
-  <si>
-    <t>交易成功</t>
-  </si>
-  <si>
-    <t>EXCHANGE_RESULT_TYPE_NOENOUGH</t>
-  </si>
-  <si>
-    <t>道具数量不足</t>
-  </si>
-  <si>
-    <t>EXCHANGE_RESULT_TYPE_NOITEM</t>
-  </si>
-  <si>
-    <t>道具不存在</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Failed_NotEnough</t>
-  </si>
-  <si>
-    <t>货币数量不足</t>
-  </si>
-  <si>
-    <t>Failed_OverLimitNum</t>
-  </si>
-  <si>
-    <t>超出最大上限</t>
-  </si>
-  <si>
-    <t>Error_NotExist_Source</t>
-  </si>
-  <si>
-    <t>来源物品未定义</t>
-  </si>
-  <si>
-    <t>Error_NotDefine_Target</t>
-  </si>
-  <si>
-    <t>目标物品未定义</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>道具列数</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>道具格子位</t>
-  </si>
-  <si>
-    <t>Counts</t>
-  </si>
-  <si>
-    <t>道具ID</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>GridSrcState[]</t>
-  </si>
-  <si>
-    <t>来源的道具列表</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>TargetState[]</t>
-  </si>
-  <si>
-    <t>目标的道具列表</t>
-  </si>
-  <si>
-    <t>ItemSrcState[]</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>响应类型</t>
-  </si>
-  <si>
-    <t>LstItemData</t>
-  </si>
-  <si>
-    <t>ItemSaveState[]</t>
-  </si>
-  <si>
-    <t>获得的道具</t>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.Exchange.Data</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OpenNGS.Exchange</t>
     </r>
     <r>
@@ -278,19 +84,25 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.Data</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetItem</t>
+  </si>
+  <si>
+    <t>目标物品</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OpenNGS.Exchange</t>
     </r>
     <r>
@@ -298,19 +110,34 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.Common</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCHANGE_RESULT_TYPE</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>交易结果类型</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OpenNGS.Exchange</t>
     </r>
     <r>
@@ -318,25 +145,201 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.Service</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridSrcState</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>OpenNGS.Exchange.Service</t>
+  </si>
+  <si>
+    <t>ItemSrcState</t>
+  </si>
+  <si>
+    <t>TargetState</t>
+  </si>
+  <si>
+    <t>ExchangeByGridIDReq</t>
+  </si>
+  <si>
+    <t>通过格子ID的交易请求</t>
+  </si>
+  <si>
+    <t>ExchangeByItemIDReq</t>
+  </si>
+  <si>
+    <t>通过道具ID的交易请求</t>
+  </si>
+  <si>
+    <t>ExchangeRsp</t>
+  </si>
+  <si>
+    <t>交易响应</t>
+  </si>
+  <si>
+    <t>OpenNGS.Exchange.Common</t>
+  </si>
+  <si>
+    <t>ExchangeResultType</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>目标的道具ID</t>
+  </si>
+  <si>
+    <t>EXCHANGE_RESULT_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>EXCHANGE_RESULT_TYPE_SUCCESS</t>
+  </si>
+  <si>
+    <t>交易成功</t>
+  </si>
+  <si>
+    <t>EXCHANGE_RESULT_TYPE_NOENOUGH</t>
+  </si>
+  <si>
+    <t>道具数量不足</t>
+  </si>
+  <si>
+    <t>EXCHANGE_RESULT_TYPE_NOITEM</t>
+  </si>
+  <si>
+    <t>道具不存在</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failed_NotEnough</t>
+  </si>
+  <si>
+    <t>货币数量不足</t>
+  </si>
+  <si>
+    <t>Failed_OverLimitNum</t>
+  </si>
+  <si>
+    <t>超出最大上限</t>
+  </si>
+  <si>
+    <t>Error_NotExist_Source</t>
+  </si>
+  <si>
+    <t>来源物品未定义</t>
+  </si>
+  <si>
+    <t>Error_NotDefine_Target</t>
+  </si>
+  <si>
+    <t>目标物品未定义</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>道具列数</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>道具格子位</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>GridSrcState[]</t>
+  </si>
+  <si>
+    <t>来源的道具列表</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>TargetState[]</t>
+  </si>
+  <si>
+    <t>目标的道具列表</t>
+  </si>
+  <si>
+    <t>ItemSrcState[]</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>响应类型</t>
+  </si>
+  <si>
+    <t>LstItemData</t>
+  </si>
+  <si>
+    <t>ItemSaveState[]</t>
+  </si>
+  <si>
+    <t>获得的道具</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,34 +421,350 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -488,9 +807,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -546,156 +1107,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <sz val="9"/>
@@ -777,36 +1244,171 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.799951170384838"/>
+          <bgColor rgb="FF000000" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor rgb="FF000000" tint="0.799951170384838"/>
+          <bgColor rgb="FF000000" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000" tint="0.399945066682943"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -817,7 +1419,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -845,279 +1447,203 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <top style="double">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399945066682943"/>
         </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="lastColumn" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
-      <tableStyleElement type="firstColumn" dxfId="25"/>
-      <tableStyleElement type="lastColumn" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:J11" totalsRowShown="0">
+  <autoFilter ref="A1:J11"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Group" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Index" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TableType" dataDxfId="12"/>
+    <tableColumn id="1" name="Package" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Group" dataDxfId="2"/>
+    <tableColumn id="4" name="Type" dataDxfId="3"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" name="Scope" dataDxfId="5"/>
+    <tableColumn id="7" name="PK" dataDxfId="6"/>
+    <tableColumn id="8" name="SK" dataDxfId="7"/>
+    <tableColumn id="9" name="Index" dataDxfId="8"/>
+    <tableColumn id="10" name="TableType" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="TargetState" displayName="TargetState" ref="A14:F17" totalsRowShown="0">
-  <autoFilter ref="A14:F17" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="TargetState" displayName="TargetState" ref="A14:F17" totalsRowShown="0">
+  <autoFilter ref="A14:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="ExchangeByItemIDReq" displayName="ExchangeByItemIDReq" ref="A25:F27" totalsRowShown="0">
-  <autoFilter ref="A25:F27" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="ExchangeByItemIDReq" displayName="ExchangeByItemIDReq" ref="A25:F27" totalsRowShown="0">
+  <autoFilter ref="A25:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SourceItem" displayName="SourceItem" ref="A2:F4" totalsRowShown="0">
-  <autoFilter ref="A2:F4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="SourceItem" displayName="SourceItem" ref="A2:F4" totalsRowShown="0">
+  <autoFilter ref="A2:F4"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TargetItem" displayName="TargetItem" ref="A7:F9" totalsRowShown="0">
-  <autoFilter ref="A7:F9" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TargetItem" displayName="TargetItem" ref="A7:F9" totalsRowShown="0">
+  <autoFilter ref="A7:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="EXCHANGE_RESULT_TYPE" displayName="EXCHANGE_RESULT_TYPE" ref="A3:F7" totalsRowShown="0">
-  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="EXCHANGE_RESULT_TYPE" displayName="EXCHANGE_RESULT_TYPE" ref="A3:F7" totalsRowShown="0">
+  <autoFilter ref="A3:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope" dataDxfId="9"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type" dataDxfId="11"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag" dataDxfId="12"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="ExchangeResultType" displayName="ExchangeResultType" ref="A11:F17" totalsRowShown="0">
-  <autoFilter ref="A11:F17" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ExchangeResultType" displayName="ExchangeResultType" ref="A11:F17" totalsRowShown="0">
+  <autoFilter ref="A11:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="ItemSrcState" displayName="ItemSrcState" ref="A8:F11" totalsRowShown="0">
-  <autoFilter ref="A8:F11" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ItemSrcState" displayName="ItemSrcState" ref="A8:F11" totalsRowShown="0">
+  <autoFilter ref="A8:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="ExchangeRsp" displayName="ExchangeRsp" ref="A30:F32" totalsRowShown="0">
-  <autoFilter ref="A30:F32" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="ExchangeRsp" displayName="ExchangeRsp" ref="A30:F32" totalsRowShown="0">
+  <autoFilter ref="A30:F32"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="GridSrcState" displayName="GridSrcState" ref="A2:F5" totalsRowShown="0">
-  <autoFilter ref="A2:F5" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="GridSrcState" displayName="GridSrcState" ref="A2:F5" totalsRowShown="0">
+  <autoFilter ref="A2:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="ExchangeByGridIDReq" displayName="ExchangeByGridIDReq" ref="A20:F22" totalsRowShown="0">
-  <autoFilter ref="A20:F22" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="ExchangeByGridIDReq" displayName="ExchangeByGridIDReq" ref="A20:F22" totalsRowShown="0">
+  <autoFilter ref="A20:F22"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1367,28 +1893,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.1833333333333" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.45" customWidth="1"/>
+    <col min="10" max="10" width="11.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1420,270 +1946,270 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="14.25" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:10">
+      <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1691,25 +2217,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1717,7 +2244,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1">
+    <row r="2" s="13" customFormat="1" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1728,54 +2255,54 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="13" customFormat="1">
+    <row r="3" s="13" customFormat="1" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1783,9 +2310,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1793,7 +2320,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1804,54 +2331,54 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1859,7 +2386,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1867,7 +2394,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="31" spans="1:6" s="14" customFormat="1">
+    <row r="31" s="14" customFormat="1" spans="1:6">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1876,18 +2403,18 @@
       <c r="F31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -1896,23 +2423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.9083333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.45" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.81666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="6"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1920,9 +2448,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1930,7 +2458,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1941,86 +2469,86 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2028,7 +2556,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2036,9 +2564,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2046,7 +2574,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="15" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -2057,127 +2585,127 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" ht="15" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -2186,25 +2714,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.90833333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.45" customWidth="1"/>
+    <col min="3" max="3" width="13.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.9083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2212,7 +2741,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2223,72 +2752,72 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2296,9 +2825,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2306,7 +2835,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2317,72 +2846,72 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2390,9 +2919,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2400,7 +2929,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2411,76 +2940,76 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2488,9 +3017,9 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2498,7 +3027,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2509,56 +3038,56 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2566,9 +3095,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2576,7 +3105,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2587,56 +3116,56 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2644,9 +3173,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2654,7 +3183,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2665,76 +3194,76 @@
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4">
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D3:D6">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D27">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23 D28">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D32">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
